--- a/FORMACIONES/PROGRAMACION DE SOFTWARE/ASISTENCIA/FORMATO DE INASISTENCIA A LA FORMACIÓN.xlsx
+++ b/FORMACIONES/PROGRAMACION DE SOFTWARE/ASISTENCIA/FORMATO DE INASISTENCIA A LA FORMACIÓN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharkCoder\OneDrive\ONE DRIVE COMPARTIDOS PC\SENATEC\FORMACIONES\PROGRAMACIÓN DE SOFTWARE\ASISTENCIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharkCoder\Desktop\SENATIC\FORMACIONES\PROGRAMACION DE SOFTWARE\ASISTENCIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB16FEE-4FC5-4447-A844-6E89659620FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972B2DD-70DB-45BD-B604-6015FE589A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="92">
   <si>
     <t>1 = Asistencia</t>
   </si>
@@ -292,6 +292,33 @@
   </si>
   <si>
     <t>`1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -1161,18 +1188,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,20 +1229,35 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1240,13 +1270,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1762,43 +1789,43 @@
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="83"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="107">
+      <c r="G2" s="103">
         <v>3211021</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="109"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="105"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="82"/>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="83"/>
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="109"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="105"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
@@ -1809,86 +1836,86 @@
       <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="106">
         <v>45798</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="106">
         <v>45800</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="106">
         <v>45805</v>
       </c>
-      <c r="J6" s="91">
+      <c r="J6" s="106">
         <v>45807</v>
       </c>
-      <c r="K6" s="91">
+      <c r="K6" s="106">
         <v>45752</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="95" t="s">
+      <c r="M6" s="91" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="96"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
@@ -15482,6 +15509,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -15498,9 +15528,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:J25">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -15561,43 +15588,43 @@
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="87"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="88"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="117">
         <v>3211021</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="87"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="88"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
@@ -15608,86 +15635,86 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="106">
         <v>45812</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="106">
         <v>45814</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="106">
         <v>45819</v>
       </c>
-      <c r="J6" s="91">
+      <c r="J6" s="106">
         <v>45821</v>
       </c>
-      <c r="K6" s="91">
+      <c r="K6" s="106">
         <v>45752</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="95" t="s">
+      <c r="M6" s="91" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="113"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="122"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="77">
@@ -29281,6 +29308,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G4:L4"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -29290,16 +29323,10 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G4:L4"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:J25">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -29361,47 +29388,47 @@
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="87"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="88"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="117">
         <v>3211021</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="119"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="87"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="88"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
@@ -29412,32 +29439,32 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="119"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="120"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="123" t="s">
@@ -29449,40 +29476,40 @@
       <c r="C6" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="106">
         <v>45847</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="106">
         <v>45849</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="106">
         <v>45854</v>
       </c>
-      <c r="J6" s="91">
+      <c r="J6" s="106">
         <v>45856</v>
       </c>
-      <c r="K6" s="91">
+      <c r="K6" s="106">
         <v>45861</v>
       </c>
-      <c r="L6" s="91">
+      <c r="L6" s="106">
         <v>45863</v>
       </c>
-      <c r="M6" s="91">
+      <c r="M6" s="106">
         <v>45868</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="95" t="s">
+      <c r="O6" s="91" t="s">
         <v>15</v>
       </c>
     </row>
@@ -29491,17 +29518,17 @@
       <c r="B7" s="126"/>
       <c r="C7" s="128"/>
       <c r="D7" s="129"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="122"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
@@ -45075,6 +45102,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:N2"/>
@@ -45087,15 +45123,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <conditionalFormatting sqref="K8:M8 G9:M25">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -45131,11 +45158,11 @@
   </sheetPr>
   <dimension ref="A1:O943"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45172,47 +45199,47 @@
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="87"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="88"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="117">
         <v>3211021</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="119"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="87"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="88"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
@@ -45223,32 +45250,32 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="119"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="123" t="s">
@@ -45260,40 +45287,40 @@
       <c r="C6" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="106">
         <v>45870</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="106">
         <v>45875</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="106">
         <v>45877</v>
       </c>
-      <c r="J6" s="91">
+      <c r="J6" s="106">
         <v>45882</v>
       </c>
-      <c r="K6" s="91">
+      <c r="K6" s="106">
         <v>45884</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="91">
+      <c r="M6" s="106">
         <v>45891</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="95" t="s">
+      <c r="O6" s="91" t="s">
         <v>15</v>
       </c>
     </row>
@@ -45302,17 +45329,17 @@
       <c r="B7" s="126"/>
       <c r="C7" s="128"/>
       <c r="D7" s="129"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="122"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
@@ -45351,7 +45378,9 @@
       <c r="L8" s="24">
         <v>0</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="N8" s="34">
         <f>COUNTIF(G8:M8,"=1")</f>
         <v>0</v>
@@ -45398,7 +45427,9 @@
       <c r="L9" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="24"/>
+      <c r="M9" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="N9" s="34">
         <f>COUNTIF(G9:M9,"=1")</f>
         <v>4</v>
@@ -45445,7 +45476,9 @@
       <c r="L10" s="24">
         <v>1</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="N10" s="34">
         <f t="shared" ref="N10:N25" si="0">COUNTIF(G10:M10,"=1")</f>
         <v>6</v>
@@ -45492,7 +45525,9 @@
       <c r="L11" s="24">
         <v>1</v>
       </c>
-      <c r="M11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="N11" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -45539,7 +45574,9 @@
       <c r="L12" s="24">
         <v>1</v>
       </c>
-      <c r="M12" s="24"/>
+      <c r="M12" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="N12" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -45586,7 +45623,9 @@
       <c r="L13" s="24">
         <v>1</v>
       </c>
-      <c r="M13" s="24"/>
+      <c r="M13" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="N13" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -45633,7 +45672,9 @@
       <c r="L14" s="24">
         <v>1</v>
       </c>
-      <c r="M14" s="24"/>
+      <c r="M14" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="N14" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -45727,7 +45768,9 @@
       <c r="L16" s="24">
         <v>1</v>
       </c>
-      <c r="M16" s="24"/>
+      <c r="M16" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="N16" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -45774,7 +45817,9 @@
       <c r="L17" s="24">
         <v>1</v>
       </c>
-      <c r="M17" s="24"/>
+      <c r="M17" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="N17" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -45868,7 +45913,9 @@
       <c r="L19" s="24">
         <v>1</v>
       </c>
-      <c r="M19" s="24"/>
+      <c r="M19" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="N19" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -45915,7 +45962,9 @@
       <c r="L20" s="24">
         <v>1</v>
       </c>
-      <c r="M20" s="24"/>
+      <c r="M20" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="N20" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -45962,7 +46011,9 @@
       <c r="L21" s="24">
         <v>1</v>
       </c>
-      <c r="M21" s="24"/>
+      <c r="M21" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="N21" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -46009,7 +46060,9 @@
       <c r="L22" s="24">
         <v>1</v>
       </c>
-      <c r="M22" s="24"/>
+      <c r="M22" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="N22" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -46056,7 +46109,9 @@
       <c r="L23" s="24">
         <v>1</v>
       </c>
-      <c r="M23" s="24"/>
+      <c r="M23" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="N23" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -60850,13 +60905,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G2:N2"/>
@@ -60871,6 +60919,13 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:M25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
